--- a/case-4-b/data/return_calibrations.xlsx
+++ b/case-4-b/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0004811527117219537</v>
+        <v>0.0004584438492051402</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.0009418806497516295</v>
+        <v>-0.0008719402992158691</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.000130588477085255</v>
+        <v>0.0001285430149506462</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0003804727464421481</v>
+        <v>-0.0003383942968661822</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.002796203246019869</v>
+        <v>-0.002631423867314078</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0001874193893928215</v>
+        <v>0.0001845609411018111</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0004567376069677233</v>
+        <v>0.0003733746225828222</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.0006235813972861562</v>
+        <v>-0.0004707551635742239</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>8.918345362503202E-05</v>
+        <v>8.731604798794205E-05</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/case-4-b/data/return_calibrations.xlsx
+++ b/case-4-b/data/return_calibrations.xlsx
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0004584438492051402</v>
+        <v>0.0004965318037057299</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.0008719402992158691</v>
+        <v>-0.0009009050501610989</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0001285430149506462</v>
+        <v>0.0001300126415975061</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0003383942968661822</v>
+        <v>-0.0003606979972780462</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.002631423867314078</v>
+        <v>-0.002785181442717347</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0001845609411018111</v>
+        <v>0.0001872444020427046</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0003733746225828222</v>
+        <v>0.0004301692140885208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.0004707551635742239</v>
+        <v>-0.000518770800025047</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>8.731604798794205E-05</v>
+        <v>8.86477946475698E-05</v>
       </c>
     </row>
     <row r="8" spans="1:2">
